--- a/data/morrison_scott/Morrison_Scott_Appendix1.xlsx
+++ b/data/morrison_scott/Morrison_Scott_Appendix1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/morrison_scott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F44AB-D2AC-DD42-BCF7-AE844CE0A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2B3227-B5D5-6F4D-9AB0-3345004FE02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="520" windowWidth="32740" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2771,7 +2771,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
